--- a/3D Modeling/data/Model Metadata.xlsx
+++ b/3D Modeling/data/Model Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iancombs/Documents/GitHub/analysisOf3dModels/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iancombs/Documents/GitHub/analysisOf3dModels/3D Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67641BBA-A7A4-064E-B8CA-ECF48F7B4FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED835A3C-46DE-C146-96A7-455D437F0A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{559953E9-102F-0E43-9581-F40D97E68387}"/>
+    <workbookView xWindow="45640" yWindow="3900" windowWidth="28040" windowHeight="17440" xr2:uid="{559953E9-102F-0E43-9581-F40D97E68387}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
